--- a/Assets/data/Faculty_Insert.xlsx
+++ b/Assets/data/Faculty_Insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6F9F9-75F4-40CF-B665-74FEDFD3240E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB2C19E-B175-400D-8AAE-FEC8EA3B81D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{21FCD31B-7798-427F-A334-20D83BC2FBC0}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Visiting</t>
   </si>
   <si>
-    <t>FID103</t>
-  </si>
-  <si>
     <t>Kartikey</t>
   </si>
   <si>
@@ -69,18 +66,9 @@
     <t>FID106</t>
   </si>
   <si>
-    <t>FID107</t>
-  </si>
-  <si>
-    <t>FID108</t>
-  </si>
-  <si>
     <t>FID109</t>
   </si>
   <si>
-    <t>FID110</t>
-  </si>
-  <si>
     <t>FID111</t>
   </si>
   <si>
@@ -88,13 +76,25 @@
   </si>
   <si>
     <t>FID113</t>
+  </si>
+  <si>
+    <t>FID110$%#@</t>
+  </si>
+  <si>
+    <t>FID%^&amp;*^108</t>
+  </si>
+  <si>
+    <t>FID@#$%107</t>
+  </si>
+  <si>
+    <t>FID1@$^%03</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +104,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -126,13 +134,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +459,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,7 +482,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -481,11 +492,11 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -493,10 +504,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -504,10 +515,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -515,21 +526,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -537,10 +548,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -548,21 +559,21 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -570,10 +581,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -581,10 +592,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -592,10 +603,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -603,6 +614,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" xr:uid="{0B3FDEBB-1029-4B32-9A30-6E2616B6C3DF}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{E182C265-9715-42E7-915B-3FFD39D01CDC}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{DC04AA8D-4124-49A4-BF8F-433B248813F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>